--- a/data/case1/2/Qlm2_3.xlsx
+++ b/data/case1/2/Qlm2_3.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.223721971661071</v>
+        <v>-0.09611372762975634</v>
       </c>
       <c r="B1" s="0">
-        <v>0.22312359326428322</v>
+        <v>0.095632035851991759</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.14842950311385117</v>
+        <v>-0.07093907640559749</v>
       </c>
       <c r="B2" s="0">
-        <v>0.14688807509236224</v>
+        <v>0.069638325377807675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.097171097371893111</v>
+        <v>-0.019924743359849728</v>
       </c>
       <c r="B3" s="0">
-        <v>0.096716670894489098</v>
+        <v>0.019564932844961191</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.088716670991297875</v>
+        <v>-0.011564932965711705</v>
       </c>
       <c r="B4" s="0">
-        <v>0.088311037836573902</v>
+        <v>0.011243167052221281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.085311037890780206</v>
+        <v>-0.008243167103029414</v>
       </c>
       <c r="B5" s="0">
-        <v>0.083936820810037283</v>
+        <v>0.0071522550532483464</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.015337754733689479</v>
+        <v>-0.0095491312260396199</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.015439464247931411</v>
+        <v>0.0093270282800723692</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.025439464115245336</v>
+        <v>0.00067297157617796088</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.025460756101213899</v>
+        <v>-0.00071607393566530675</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.035460755971463698</v>
+        <v>0.010716073792936598</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.035525429798280328</v>
+        <v>-0.01077475320326915</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.037525429751561479</v>
+        <v>0.012774753177312803</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.037594967318997696</v>
+        <v>-0.012818039667339853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.039594967279123594</v>
+        <v>0.014818039647055414</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.039600546874750009</v>
+        <v>-0.014817746708713386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.028471467805863071</v>
+        <v>0.017817746674862356</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.028479877483041705</v>
+        <v>-0.017820914949085775</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.031979877429372028</v>
+        <v>0.021320914909615407</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.032106837223564</v>
+        <v>-0.021364275260494558</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.035606837178426609</v>
+        <v>-0.0058443581911626907</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.035711586494671543</v>
+        <v>0.0058372763082186196</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0090779254802333398</v>
+        <v>0.0021627236009438278</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0090507083609665528</v>
+        <v>-0.0021626248503290313</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080507083796659273</v>
+        <v>0.0031626248579179617</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0080331599434755319</v>
+        <v>-0.0031637921910423472</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0060331599726044516</v>
+        <v>-0.0060336474915945182</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060030683993606004</v>
+        <v>0.0060029500925953272</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0040030684295846442</v>
+        <v>-0.0040029500986520361</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999503042005</v>
+        <v>0.0039999999657345242</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.068694090210698278</v>
+        <v>-0.018692959531389164</v>
       </c>
       <c r="B18" s="0">
-        <v>0.068535248645140712</v>
+        <v>0.018579526026609727</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091382155077657</v>
+        <v>-0.012090786531534281</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016122405621665</v>
+        <v>0.012015662772189462</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080161224508721318</v>
+        <v>-0.0080156628344241199</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080056280361571197</v>
+        <v>0.0080056471551515074</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040056280818658863</v>
+        <v>-0.0040056472180642899</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999540096809</v>
+        <v>0.0039999999365107897</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.045716977773617273</v>
+        <v>-0.045713582082461457</v>
       </c>
       <c r="B22" s="0">
-        <v>0.04550253671831328</v>
+        <v>0.045500526265692898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.040502536784257082</v>
+        <v>-0.040500526348999699</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040099603959459884</v>
+        <v>0.040099067745019923</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020099604174480312</v>
+        <v>-0.020099068045637658</v>
       </c>
       <c r="B24" s="0">
-        <v>0.01999999978214273</v>
+        <v>0.019999999695041737</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.097274575600545532</v>
+        <v>-0.079827400245683577</v>
       </c>
       <c r="B25" s="0">
-        <v>0.097149851523468556</v>
+        <v>0.079761923346470809</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.094649851587712774</v>
+        <v>-0.077261923390139486</v>
       </c>
       <c r="B26" s="0">
-        <v>0.094488328145837741</v>
+        <v>0.077177473117451711</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.091988328214674286</v>
+        <v>-0.074677473165066566</v>
       </c>
       <c r="B27" s="0">
-        <v>0.091024864976608111</v>
+        <v>0.074174503199327724</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.089024865060050473</v>
+        <v>-0.072174503261246414</v>
       </c>
       <c r="B28" s="0">
-        <v>0.088365406445252148</v>
+        <v>0.071838111255617676</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.081365406589347877</v>
+        <v>-0.064838111399138754</v>
       </c>
       <c r="B29" s="0">
-        <v>0.081174686746003033</v>
+        <v>0.06474816007787787</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.02117468740506423</v>
+        <v>-0.0047481609679111969</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021022698006725626</v>
+        <v>0.0047388581363594362</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014022698162172276</v>
+        <v>-0.014020893497074027</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000877523038469</v>
+        <v>0.014000699274763662</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040008777079112434</v>
+        <v>-0.0040006994690671149</v>
       </c>
       <c r="B32" s="0">
-        <v>0.003999999872499771</v>
+        <v>0.0039999998892401578</v>
       </c>
     </row>
   </sheetData>
